--- a/biology/Botanique/Parc_Roi_Baudouin/Parc_Roi_Baudouin.xlsx
+++ b/biology/Botanique/Parc_Roi_Baudouin/Parc_Roi_Baudouin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le parc Roi Baudouin est un parc public belge situé au nord-ouest de Bruxelles dans les communes de Jette et Ganshoren[1]. Situé sur 100 hectares, le parc est composé de zones boisées, marécageuses ainsi que d’étendues d’eau[2]. Il est nommé en l’honneur de Baudouin de Belgique.
+Le parc Roi Baudouin est un parc public belge situé au nord-ouest de Bruxelles dans les communes de Jette et Ganshoren. Situé sur 100 hectares, le parc est composé de zones boisées, marécageuses ainsi que d’étendues d’eau. Il est nommé en l’honneur de Baudouin de Belgique.
 			Le Molenbeek.
 			Héron et étendue d'eau au parc
 			Marais de Jette au parc
